--- a/Team-Data/2014-15/12-29-2014-15.xlsx
+++ b/Team-Data/2014-15/12-29-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>4.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
         <v>4</v>
@@ -765,7 +832,7 @@
         <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL2" t="n">
         <v>7</v>
@@ -792,22 +859,22 @@
         <v>12</v>
       </c>
       <c r="AT2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW2" t="n">
         <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -932,7 +999,7 @@
         <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG3" t="n">
         <v>22</v>
@@ -944,10 +1011,10 @@
         <v>3</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL3" t="n">
         <v>15</v>
@@ -962,10 +1029,10 @@
         <v>27</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>19</v>
@@ -989,16 +1056,16 @@
         <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
       </c>
       <c r="BB3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC3" t="n">
         <v>17</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
         <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>0.467</v>
+        <v>0.448</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
@@ -1048,7 +1115,7 @@
         <v>36.4</v>
       </c>
       <c r="J4" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K4" t="n">
         <v>0.447</v>
@@ -1060,67 +1127,67 @@
         <v>21.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.336</v>
+        <v>0.335</v>
       </c>
       <c r="O4" t="n">
-        <v>16.9</v>
+        <v>16.6</v>
       </c>
       <c r="P4" t="n">
-        <v>22.7</v>
+        <v>22.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.746</v>
+        <v>0.749</v>
       </c>
       <c r="R4" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T4" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U4" t="n">
         <v>20.8</v>
       </c>
       <c r="V4" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="W4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
         <v>4.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z4" t="n">
         <v>20.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.8</v>
+        <v>96.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.3</v>
+        <v>-2.7</v>
       </c>
       <c r="AD4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE4" t="n">
         <v>18</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>16</v>
       </c>
       <c r="AF4" t="n">
         <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI4" t="n">
         <v>24</v>
@@ -1132,52 +1199,52 @@
         <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AM4" t="n">
         <v>17</v>
       </c>
       <c r="AN4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO4" t="n">
         <v>22</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AP4" t="n">
         <v>21</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AQ4" t="n">
         <v>18</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>17</v>
       </c>
       <c r="AR4" t="n">
         <v>25</v>
       </c>
       <c r="AS4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU4" t="n">
         <v>18</v>
       </c>
       <c r="AV4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA4" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BB4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -1212,106 +1279,106 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" t="n">
-        <v>0.313</v>
+        <v>0.323</v>
       </c>
       <c r="H5" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="I5" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J5" t="n">
-        <v>85.3</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.428</v>
+        <v>0.43</v>
       </c>
       <c r="L5" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.322</v>
+        <v>0.324</v>
       </c>
       <c r="O5" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P5" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.737</v>
+        <v>0.734</v>
       </c>
       <c r="R5" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S5" t="n">
-        <v>32.5</v>
+        <v>32.3</v>
       </c>
       <c r="T5" t="n">
-        <v>42.2</v>
+        <v>42</v>
       </c>
       <c r="U5" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V5" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="W5" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
         <v>95.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG5" t="n">
         <v>25</v>
       </c>
       <c r="AH5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
         <v>26</v>
@@ -1329,16 +1396,16 @@
         <v>20</v>
       </c>
       <c r="AQ5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR5" t="n">
         <v>26</v>
       </c>
       <c r="AS5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU5" t="n">
         <v>23</v>
@@ -1347,25 +1414,25 @@
         <v>1</v>
       </c>
       <c r="AW5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AY5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB5" t="n">
         <v>24</v>
       </c>
       <c r="BC5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -1394,106 +1461,106 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="n">
         <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>36.9</v>
+        <v>37.2</v>
       </c>
       <c r="J6" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.455</v>
+        <v>0.458</v>
       </c>
       <c r="L6" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="N6" t="n">
         <v>0.365</v>
       </c>
       <c r="O6" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="P6" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.781</v>
+        <v>0.777</v>
       </c>
       <c r="R6" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S6" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="T6" t="n">
         <v>45.5</v>
       </c>
       <c r="U6" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="V6" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W6" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X6" t="n">
         <v>6.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>103.1</v>
+        <v>103.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AD6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH6" t="n">
         <v>11</v>
       </c>
-      <c r="AE6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>13</v>
-      </c>
       <c r="AI6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
         <v>22</v>
       </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AL6" t="n">
         <v>14</v>
@@ -1511,13 +1578,13 @@
         <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AS6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT6" t="n">
         <v>4</v>
@@ -1526,16 +1593,16 @@
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX6" t="n">
         <v>2</v>
       </c>
       <c r="AY6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ6" t="n">
         <v>5</v>
@@ -1544,10 +1611,10 @@
         <v>2</v>
       </c>
       <c r="BB6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>2.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1675,7 +1742,7 @@
         <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL7" t="n">
         <v>11</v>
@@ -1684,13 +1751,13 @@
         <v>13</v>
       </c>
       <c r="AN7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
         <v>5</v>
       </c>
       <c r="AP7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ7" t="n">
         <v>12</v>
@@ -1699,10 +1766,10 @@
         <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
@@ -1711,19 +1778,19 @@
         <v>9</v>
       </c>
       <c r="AW7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ7" t="n">
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -1758,97 +1825,97 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" t="n">
         <v>22</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>0.71</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="J8" t="n">
-        <v>86.40000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L8" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O8" t="n">
         <v>17.9</v>
       </c>
       <c r="P8" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.764</v>
+        <v>0.766</v>
       </c>
       <c r="R8" t="n">
         <v>11.2</v>
       </c>
       <c r="S8" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="T8" t="n">
-        <v>42.4</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="V8" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="W8" t="n">
         <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y8" t="n">
         <v>3.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.8</v>
+        <v>109.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
         <v>1</v>
@@ -1869,22 +1936,22 @@
         <v>16</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
         <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR8" t="n">
         <v>13</v>
       </c>
       <c r="AS8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT8" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -1902,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -2018,16 +2085,16 @@
         <v>-2.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH9" t="n">
         <v>13</v>
@@ -2054,7 +2121,7 @@
         <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ9" t="n">
         <v>20</v>
@@ -2072,13 +2139,13 @@
         <v>19</v>
       </c>
       <c r="AV9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW9" t="n">
         <v>23</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY9" t="n">
         <v>27</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
         <v>27</v>
@@ -2212,10 +2279,10 @@
         <v>27</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ10" t="n">
         <v>7</v>
@@ -2245,13 +2312,13 @@
         <v>2</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT10" t="n">
         <v>7</v>
       </c>
       <c r="AU10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV10" t="n">
         <v>8</v>
@@ -2260,7 +2327,7 @@
         <v>18</v>
       </c>
       <c r="AX10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2415,13 +2482,13 @@
         <v>7</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP11" t="n">
         <v>25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AR11" t="n">
         <v>23</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -2489,94 +2556,94 @@
         <v>29</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.724</v>
       </c>
       <c r="H12" t="n">
         <v>48.7</v>
       </c>
       <c r="I12" t="n">
-        <v>35.5</v>
+        <v>35.2</v>
       </c>
       <c r="J12" t="n">
-        <v>82.7</v>
+        <v>82.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.43</v>
+        <v>0.428</v>
       </c>
       <c r="L12" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="M12" t="n">
         <v>34.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.342</v>
+        <v>0.345</v>
       </c>
       <c r="O12" t="n">
-        <v>18</v>
+        <v>18.7</v>
       </c>
       <c r="P12" t="n">
-        <v>25.4</v>
+        <v>26.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.709</v>
+        <v>0.71</v>
       </c>
       <c r="R12" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S12" t="n">
-        <v>32.2</v>
+        <v>32.4</v>
       </c>
       <c r="T12" t="n">
-        <v>44.4</v>
+        <v>44.8</v>
       </c>
       <c r="U12" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V12" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="W12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X12" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y12" t="n">
         <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.4</v>
+        <v>21.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AF12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI12" t="n">
         <v>28</v>
@@ -2585,7 +2652,7 @@
         <v>18</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2609,31 +2676,31 @@
         <v>5</v>
       </c>
       <c r="AS12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB12" t="n">
         <v>17</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -2668,22 +2735,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" t="n">
         <v>11</v>
       </c>
       <c r="F13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>0.344</v>
+        <v>0.355</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J13" t="n">
         <v>84.3</v>
@@ -2692,34 +2759,34 @@
         <v>0.431</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M13" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
       <c r="O13" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="P13" t="n">
         <v>20.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.729</v>
+        <v>0.732</v>
       </c>
       <c r="R13" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S13" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="T13" t="n">
         <v>45.3</v>
       </c>
       <c r="U13" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V13" t="n">
         <v>14.3</v>
@@ -2728,31 +2795,31 @@
         <v>5.7</v>
       </c>
       <c r="X13" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Y13" t="n">
         <v>4.8</v>
       </c>
-      <c r="Y13" t="n">
-        <v>4.9</v>
-      </c>
       <c r="Z13" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="AC13" t="n">
         <v>-1.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>22</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
         <v>23</v>
@@ -2770,7 +2837,7 @@
         <v>25</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
@@ -2782,43 +2849,43 @@
         <v>28</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR13" t="n">
         <v>15</v>
       </c>
       <c r="AS13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT13" t="n">
         <v>5</v>
       </c>
       <c r="AU13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW13" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AX13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ13" t="n">
         <v>19</v>
       </c>
       <c r="BA13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BC13" t="n">
         <v>19</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" t="n">
         <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>0.656</v>
+        <v>0.645</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
@@ -2877,61 +2944,61 @@
         <v>10</v>
       </c>
       <c r="M14" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.385</v>
+        <v>0.383</v>
       </c>
       <c r="O14" t="n">
         <v>19</v>
       </c>
       <c r="P14" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="S14" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
         <v>40.6</v>
       </c>
       <c r="U14" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="V14" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="W14" t="n">
         <v>7.7</v>
       </c>
       <c r="X14" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Y14" t="n">
         <v>3.1</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA14" t="n">
         <v>22.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.1</v>
+        <v>106.3</v>
       </c>
       <c r="AC14" t="n">
         <v>5.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF14" t="n">
         <v>10</v>
@@ -2964,19 +3031,19 @@
         <v>6</v>
       </c>
       <c r="AP14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
         <v>27</v>
       </c>
       <c r="AS14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU14" t="n">
         <v>6</v>
@@ -2988,13 +3055,13 @@
         <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -3032,121 +3099,121 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>38.5</v>
+        <v>38.1</v>
       </c>
       <c r="J15" t="n">
-        <v>87.7</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.439</v>
+        <v>0.436</v>
       </c>
       <c r="L15" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M15" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O15" t="n">
-        <v>18.6</v>
+        <v>19</v>
       </c>
       <c r="P15" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.744</v>
+        <v>0.746</v>
       </c>
       <c r="R15" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S15" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="T15" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="V15" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="W15" t="n">
         <v>7.6</v>
       </c>
       <c r="X15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.7</v>
+        <v>102.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.5</v>
+        <v>-6.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK15" t="n">
         <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM15" t="n">
         <v>21</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ15" t="n">
         <v>19</v>
@@ -3158,19 +3225,19 @@
         <v>24</v>
       </c>
       <c r="AT15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW15" t="n">
         <v>14</v>
       </c>
       <c r="AX15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
         <v>7</v>
@@ -3179,13 +3246,13 @@
         <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BB15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BC15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>4.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3325,49 +3392,49 @@
         <v>14</v>
       </c>
       <c r="AO16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP16" t="n">
         <v>12</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR16" t="n">
         <v>21</v>
       </c>
       <c r="AS16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV16" t="n">
         <v>3</v>
       </c>
       <c r="AW16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX16" t="n">
         <v>25</v>
       </c>
       <c r="AY16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
         <v>9</v>
       </c>
       <c r="BA16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BB16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -3396,52 +3463,52 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" t="n">
-        <v>0.438</v>
+        <v>0.452</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="J17" t="n">
-        <v>74.3</v>
+        <v>74.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L17" t="n">
         <v>7.8</v>
       </c>
       <c r="M17" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.359</v>
+        <v>0.356</v>
       </c>
       <c r="O17" t="n">
-        <v>18.1</v>
+        <v>17.7</v>
       </c>
       <c r="P17" t="n">
-        <v>24.7</v>
+        <v>24.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="R17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S17" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="T17" t="n">
         <v>35.9</v>
@@ -3459,31 +3526,31 @@
         <v>3.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>-3.2</v>
+        <v>-3.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>29</v>
@@ -3495,25 +3562,25 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN17" t="n">
         <v>13</v>
       </c>
-      <c r="AM17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>12</v>
-      </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3528,7 +3595,7 @@
         <v>29</v>
       </c>
       <c r="AV17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW17" t="n">
         <v>6</v>
@@ -3537,16 +3604,16 @@
         <v>30</v>
       </c>
       <c r="AY17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ17" t="n">
         <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB17" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BC17" t="n">
         <v>22</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -3578,37 +3645,37 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" t="n">
         <v>16</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.484</v>
       </c>
       <c r="H18" t="n">
-        <v>48.8</v>
+        <v>48.6</v>
       </c>
       <c r="I18" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J18" t="n">
-        <v>81.3</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K18" t="n">
         <v>0.464</v>
       </c>
       <c r="L18" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
         <v>19.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.361</v>
+        <v>0.364</v>
       </c>
       <c r="O18" t="n">
         <v>17.1</v>
@@ -3617,31 +3684,31 @@
         <v>21.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.78</v>
+        <v>0.778</v>
       </c>
       <c r="R18" t="n">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="S18" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="T18" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U18" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V18" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="W18" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z18" t="n">
         <v>23</v>
@@ -3650,13 +3717,13 @@
         <v>20.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
@@ -3665,10 +3732,10 @@
         <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
         <v>13</v>
@@ -3701,13 +3768,13 @@
         <v>22</v>
       </c>
       <c r="AS18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV18" t="n">
         <v>28</v>
@@ -3716,22 +3783,22 @@
         <v>4</v>
       </c>
       <c r="AX18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AY18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB18" t="n">
         <v>19</v>
       </c>
       <c r="BC18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-10.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3853,10 +3920,10 @@
         <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3868,7 +3935,7 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
         <v>4</v>
@@ -3895,13 +3962,13 @@
         <v>25</v>
       </c>
       <c r="AW19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX19" t="n">
         <v>21</v>
       </c>
       <c r="AY19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ19" t="n">
         <v>15</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -3942,106 +4009,106 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" t="n">
         <v>15</v>
       </c>
       <c r="G20" t="n">
-        <v>0.483</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J20" t="n">
-        <v>84.90000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L20" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M20" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.337</v>
+        <v>0.334</v>
       </c>
       <c r="O20" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P20" t="n">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.756</v>
       </c>
       <c r="R20" t="n">
-        <v>11.2</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="T20" t="n">
-        <v>42.2</v>
+        <v>42.9</v>
       </c>
       <c r="U20" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V20" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
         <v>101.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1</v>
+        <v>-0.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
         <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
         <v>8</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
@@ -4050,43 +4117,43 @@
         <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AR20" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA20" t="n">
         <v>28</v>
@@ -4095,7 +4162,7 @@
         <v>15</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -4256,10 +4323,10 @@
         <v>15</v>
       </c>
       <c r="AV21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW21" t="n">
         <v>19</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>20</v>
       </c>
       <c r="AX21" t="n">
         <v>27</v>
@@ -4268,7 +4335,7 @@
         <v>4</v>
       </c>
       <c r="AZ21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA21" t="n">
         <v>25</v>
@@ -4277,7 +4344,7 @@
         <v>27</v>
       </c>
       <c r="BC21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4454,7 @@
         <v>3</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF22" t="n">
         <v>17</v>
@@ -4396,10 +4463,10 @@
         <v>16</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="n">
         <v>16</v>
@@ -4411,7 +4478,7 @@
         <v>20</v>
       </c>
       <c r="AM22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN22" t="n">
         <v>27</v>
@@ -4423,7 +4490,7 @@
         <v>14</v>
       </c>
       <c r="AQ22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR22" t="n">
         <v>6</v>
@@ -4441,13 +4508,13 @@
         <v>24</v>
       </c>
       <c r="AW22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ22" t="n">
         <v>27</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -4491,67 +4558,67 @@
         <v>33</v>
       </c>
       <c r="E23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G23" t="n">
-        <v>0.394</v>
+        <v>0.364</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J23" t="n">
-        <v>80.09999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.46</v>
+        <v>0.456</v>
       </c>
       <c r="L23" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>19.1</v>
+        <v>18.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.38</v>
+        <v>0.377</v>
       </c>
       <c r="O23" t="n">
-        <v>13.5</v>
+        <v>13.8</v>
       </c>
       <c r="P23" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.721</v>
+        <v>0.723</v>
       </c>
       <c r="R23" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="T23" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="U23" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="V23" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W23" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X23" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="Z23" t="n">
         <v>20.8</v>
@@ -4560,19 +4627,19 @@
         <v>18.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4.5</v>
+        <v>-5.1</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG23" t="n">
         <v>21</v>
@@ -4581,22 +4648,22 @@
         <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ23" t="n">
         <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
         <v>26</v>
       </c>
       <c r="AN23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4611,25 +4678,25 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AT23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AU23" t="n">
         <v>28</v>
       </c>
-      <c r="AU23" t="n">
-        <v>26</v>
-      </c>
       <c r="AV23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX23" t="n">
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>16</v>
@@ -4641,7 +4708,7 @@
         <v>29</v>
       </c>
       <c r="BC23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-11.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
@@ -4772,7 +4839,7 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AM24" t="n">
         <v>10</v>
@@ -4781,25 +4848,25 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AS24" t="n">
         <v>22</v>
       </c>
       <c r="AT24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,10 +4875,10 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -4933,7 +5000,7 @@
         <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
         <v>13</v>
@@ -4942,16 +5009,16 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ25" t="n">
         <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL25" t="n">
         <v>2</v>
@@ -4972,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="AR25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS25" t="n">
         <v>19</v>
@@ -4990,7 +5057,7 @@
         <v>9</v>
       </c>
       <c r="AX25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY25" t="n">
         <v>6</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -5127,13 +5194,13 @@
         <v>8</v>
       </c>
       <c r="AI26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ26" t="n">
         <v>4</v>
       </c>
       <c r="AK26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
@@ -5154,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -5178,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA26" t="n">
         <v>26</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
       </c>
       <c r="F27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>0.419</v>
+        <v>0.433</v>
       </c>
       <c r="H27" t="n">
         <v>48.8</v>
@@ -5234,25 +5301,25 @@
         <v>36.6</v>
       </c>
       <c r="J27" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="K27" t="n">
         <v>0.461</v>
       </c>
       <c r="L27" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="M27" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.347</v>
+        <v>0.343</v>
       </c>
       <c r="O27" t="n">
-        <v>23.9</v>
+        <v>24.2</v>
       </c>
       <c r="P27" t="n">
-        <v>30.9</v>
+        <v>31.2</v>
       </c>
       <c r="Q27" t="n">
         <v>0.775</v>
@@ -5264,49 +5331,49 @@
         <v>33.4</v>
       </c>
       <c r="T27" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U27" t="n">
         <v>20</v>
       </c>
       <c r="V27" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="W27" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X27" t="n">
         <v>3.9</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="AB27" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>-1.5</v>
+        <v>-1.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG27" t="n">
         <v>19</v>
       </c>
       <c r="AH27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI27" t="n">
         <v>22</v>
@@ -5324,7 +5391,7 @@
         <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5342,10 +5409,10 @@
         <v>7</v>
       </c>
       <c r="AT27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
@@ -5360,13 +5427,13 @@
         <v>30</v>
       </c>
       <c r="AZ27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC27" t="n">
         <v>18</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F28" t="n">
         <v>13</v>
       </c>
       <c r="G28" t="n">
-        <v>0.581</v>
+        <v>0.594</v>
       </c>
       <c r="H28" t="n">
         <v>49.3</v>
@@ -5416,43 +5483,43 @@
         <v>38.5</v>
       </c>
       <c r="J28" t="n">
-        <v>82.8</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.465</v>
+        <v>0.467</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="N28" t="n">
-        <v>0.377</v>
+        <v>0.382</v>
       </c>
       <c r="O28" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P28" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R28" t="n">
         <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>34.5</v>
+        <v>34.3</v>
       </c>
       <c r="T28" t="n">
-        <v>44.4</v>
+        <v>44.2</v>
       </c>
       <c r="U28" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="V28" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W28" t="n">
         <v>7.5</v>
@@ -5470,13 +5537,13 @@
         <v>20.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -5497,7 +5564,7 @@
         <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL28" t="n">
         <v>9</v>
@@ -5506,16 +5573,16 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP28" t="n">
         <v>17</v>
       </c>
       <c r="AQ28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>24</v>
@@ -5530,22 +5597,22 @@
         <v>5</v>
       </c>
       <c r="AV28" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AW28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX28" t="n">
         <v>6</v>
       </c>
       <c r="AY28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB28" t="n">
         <v>9</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>8.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>2</v>
@@ -5694,13 +5761,13 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ29" t="n">
         <v>4</v>
       </c>
       <c r="AR29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" t="n">
-        <v>0.323</v>
+        <v>0.333</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
@@ -5780,10 +5847,10 @@
         <v>35.8</v>
       </c>
       <c r="J30" t="n">
-        <v>78.90000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.454</v>
+        <v>0.456</v>
       </c>
       <c r="L30" t="n">
         <v>6.8</v>
@@ -5792,31 +5859,31 @@
         <v>20.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.333</v>
+        <v>0.33</v>
       </c>
       <c r="O30" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="P30" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.744</v>
+        <v>0.749</v>
       </c>
       <c r="R30" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="S30" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T30" t="n">
-        <v>41.9</v>
+        <v>41.6</v>
       </c>
       <c r="U30" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="V30" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W30" t="n">
         <v>6.2</v>
@@ -5825,13 +5892,13 @@
         <v>5.4</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA30" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB30" t="n">
         <v>96.09999999999999</v>
@@ -5840,13 +5907,13 @@
         <v>-4.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE30" t="n">
         <v>23</v>
       </c>
       <c r="AF30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG30" t="n">
         <v>24</v>
@@ -5855,13 +5922,13 @@
         <v>29</v>
       </c>
       <c r="AI30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ30" t="n">
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5870,25 +5937,25 @@
         <v>20</v>
       </c>
       <c r="AN30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP30" t="n">
         <v>13</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AU30" t="n">
         <v>24</v>
@@ -5903,7 +5970,7 @@
         <v>7</v>
       </c>
       <c r="AY30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ30" t="n">
         <v>4</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" t="n">
         <v>8</v>
       </c>
       <c r="G31" t="n">
-        <v>0.733</v>
+        <v>0.724</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="J31" t="n">
-        <v>83</v>
+        <v>83.3</v>
       </c>
       <c r="K31" t="n">
         <v>0.472</v>
@@ -5974,70 +6041,70 @@
         <v>15.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.392</v>
+        <v>0.39</v>
       </c>
       <c r="O31" t="n">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="P31" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.74</v>
+        <v>0.732</v>
       </c>
       <c r="R31" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="S31" t="n">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="T31" t="n">
-        <v>43.2</v>
+        <v>43.4</v>
       </c>
       <c r="U31" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="V31" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="W31" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA31" t="n">
         <v>20.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF31" t="n">
         <v>4</v>
       </c>
       <c r="AG31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH31" t="n">
         <v>10</v>
       </c>
       <c r="AI31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ31" t="n">
         <v>15</v>
@@ -6061,10 +6128,10 @@
         <v>23</v>
       </c>
       <c r="AQ31" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AR31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS31" t="n">
         <v>10</v>
@@ -6076,22 +6143,22 @@
         <v>4</v>
       </c>
       <c r="AV31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AW31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX31" t="n">
         <v>10</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ31" t="n">
         <v>21</v>
       </c>
       <c r="BA31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB31" t="n">
         <v>18</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-29-2014-15</t>
+          <t>2014-12-29</t>
         </is>
       </c>
     </row>
